--- a/highz_qso_arxiv/arxiv/LRIS_2203/log/LRIS_2203_obs.xlsx
+++ b/highz_qso_arxiv/arxiv/LRIS_2203/log/LRIS_2203_obs.xlsx
@@ -981,6 +981,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1002,12 +1008,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1087,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1098,8 +1098,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1123,9 +1123,12 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -1137,101 +1140,26 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1239,14 +1167,92 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,256 +1564,256 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="53" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="54" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="55" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="55" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="53" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21">
         <v>28</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="21">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="22">
         <v>1</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21">
         <v>28</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="22">
         <v>1</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21">
         <v>28</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="22">
         <v>1</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21">
         <v>28</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22">
         <v>1</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="24"/>
@@ -31677,8 +31683,8 @@
     <col min="1" max="1" style="11" width="18.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
